--- a/mcmaster_excel/Alloy_Steel_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Alloy_Steel_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,206 +434,124 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FlangeDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1/4"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.188"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.046"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.050"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>120,000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ASTM F835</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>91355A011</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$12.30</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.188"</t>
+          <t>FlangeDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.046"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.050"</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ASTM F835</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>91355A380</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +596,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>91355A505</t>
+          <t>91355A011</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>$12.30</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +618,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,12 +628,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.234"</t>
+          <t>0.188"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -725,7 +643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>0.050"</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -735,27 +653,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASTM F835</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>91355A151</t>
+          <t>91355A380</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -767,7 +685,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -777,12 +695,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.234"</t>
+          <t>0.188"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -792,7 +710,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>0.050"</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -802,27 +720,27 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASTM F835</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>91355A152</t>
+          <t>91355A505</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -834,7 +752,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -874,17 +792,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>91355A153</t>
+          <t>91355A151</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -901,7 +819,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,12 +864,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>91355A154</t>
+          <t>91355A152</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -968,7 +886,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +931,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>91355A155</t>
+          <t>91355A153</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +953,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +998,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>91355A156</t>
+          <t>91355A154</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1137,22 +1055,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>91355A581</t>
+          <t>91355A155</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1087,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1179,12 +1097,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.297"</t>
+          <t>0.234"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1194,7 +1112,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1209,22 +1127,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>91355A157</t>
+          <t>91355A156</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1236,7 +1154,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1246,12 +1164,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.297"</t>
+          <t>0.234"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1261,7 +1179,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1271,27 +1189,27 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASTM F835</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>91355A158</t>
+          <t>91355A581</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1303,7 +1221,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1343,17 +1261,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>91355A159</t>
+          <t>91355A157</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1288,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1333,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>91355A160</t>
+          <t>91355A158</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1355,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1400,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>91355A161</t>
+          <t>91355A159</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1422,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1549,12 +1467,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>91355A162</t>
+          <t>91355A160</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1489,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1616,12 +1534,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>91355A163</t>
+          <t>91355A161</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1556,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1673,22 +1591,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>91355A900</t>
+          <t>91355A162</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>18.10</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1623,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1740,22 +1658,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>91355A997</t>
+          <t>91355A163</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1690,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1782,12 +1700,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.297"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1797,7 +1715,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1807,27 +1725,27 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASTM F835</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>91355A164</t>
+          <t>91355A900</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>18.10</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1839,7 +1757,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1849,12 +1767,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.297"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1864,7 +1782,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1874,27 +1792,27 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>ASTM F835</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>91355A072</t>
+          <t>91355A997</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1906,7 +1824,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1951,12 +1869,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>91355A165</t>
+          <t>91355A164</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1973,7 +1891,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2013,17 +1931,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>91355A074</t>
+          <t>91355A072</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +1958,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2075,22 +1993,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>91355A075</t>
+          <t>91355A165</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2025,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,22 +2060,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>91355A166</t>
+          <t>91355A074</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2092,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2209,22 +2127,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>91355A167</t>
+          <t>91355A075</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2241,7 +2159,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2286,12 +2204,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>91355A168</t>
+          <t>91355A166</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,7 +2226,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2318,12 +2236,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2333,7 +2251,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2353,17 +2271,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>91355A169</t>
+          <t>91355A167</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2375,7 +2293,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2385,12 +2303,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2400,7 +2318,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2410,27 +2328,27 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>91355A100</t>
+          <t>91355A168</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2442,7 +2360,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2477,22 +2395,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>91355A110</t>
+          <t>91355A169</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2509,7 +2427,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2549,17 +2467,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>91355A120</t>
+          <t>91355A100</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>19.84</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2576,7 +2494,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2621,12 +2539,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>91355A130</t>
+          <t>91355A110</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2643,7 +2561,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2678,22 +2596,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>91355A170</t>
+          <t>91355A120</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2710,7 +2628,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2745,27 +2663,27 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>91355A171</t>
+          <t>91355A130</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2777,7 +2695,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,17 +2740,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>91355A172</t>
+          <t>91355A170</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2844,7 +2762,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2879,22 +2797,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>91355A076</t>
+          <t>91355A171</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,7 +2829,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2946,22 +2864,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>91355A077</t>
+          <t>91355A172</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2978,7 +2896,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3018,17 +2936,17 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>91355A078</t>
+          <t>91355A076</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>19.84</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3045,7 +2963,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3090,12 +3008,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>91355A079</t>
+          <t>91355A077</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3112,7 +3030,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3147,22 +3065,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>91355A173</t>
+          <t>91355A078</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3179,7 +3097,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3214,22 +3132,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>91355A174</t>
+          <t>91355A079</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3246,7 +3164,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3286,17 +3204,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>91355A175</t>
+          <t>91355A173</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3313,7 +3231,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3323,12 +3241,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3338,7 +3256,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3358,17 +3276,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>91355A176</t>
+          <t>91355A174</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3380,7 +3298,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3390,12 +3308,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3405,7 +3323,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3420,22 +3338,22 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>91355A177</t>
+          <t>91355A175</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3447,7 +3365,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3482,22 +3400,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>91355A080</t>
+          <t>91355A176</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3514,7 +3432,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3549,22 +3467,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>91355A081</t>
+          <t>91355A177</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3581,7 +3499,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3616,22 +3534,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>91355A178</t>
+          <t>91355A080</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3648,7 +3566,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3693,7 +3611,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>91355A082</t>
+          <t>91355A081</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3715,7 +3633,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3760,12 +3678,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>91355A179</t>
+          <t>91355A178</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3782,7 +3700,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3827,12 +3745,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>91355A083</t>
+          <t>91355A082</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3849,7 +3767,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3889,17 +3807,17 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>91355A180</t>
+          <t>91355A179</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3916,7 +3834,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3951,22 +3869,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>91355A181</t>
+          <t>91355A083</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3983,7 +3901,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4023,17 +3941,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>91355A182</t>
+          <t>91355A180</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4050,7 +3968,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4090,17 +4008,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>91355A183</t>
+          <t>91355A181</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4117,7 +4035,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4157,22 +4075,22 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>91355A184</t>
+          <t>91355A182</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4184,7 +4102,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4224,22 +4142,22 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>91355A185</t>
+          <t>91355A183</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4251,7 +4169,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4296,12 +4214,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>91355A186</t>
+          <t>91355A184</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4318,7 +4236,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4363,12 +4281,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>91355A187</t>
+          <t>91355A185</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4385,7 +4303,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4395,12 +4313,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.688"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4410,7 +4328,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4420,27 +4338,27 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>91355A084</t>
+          <t>91355A186</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13.73</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4452,7 +4370,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4462,12 +4380,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.688"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4477,7 +4395,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4487,27 +4405,27 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>91355A085</t>
+          <t>91355A187</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4519,7 +4437,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4564,12 +4482,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>91355A093</t>
+          <t>91355A084</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>13.73</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4586,7 +4504,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4631,12 +4549,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>91355A086</t>
+          <t>91355A085</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4653,7 +4571,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4688,22 +4606,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>91355A188</t>
+          <t>91355A093</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4720,7 +4638,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4765,12 +4683,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>91355A087</t>
+          <t>91355A086</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4787,7 +4705,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4827,17 +4745,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>91355A189</t>
+          <t>91355A188</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4854,7 +4772,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4889,22 +4807,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>91355A190</t>
+          <t>91355A087</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4921,7 +4839,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4931,12 +4849,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.688"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4946,7 +4864,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4956,27 +4874,27 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>91355A088</t>
+          <t>91355A189</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4988,7 +4906,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4998,12 +4916,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.688"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5013,7 +4931,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>7/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5028,22 +4946,22 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>91355A191</t>
+          <t>91355A190</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13.69</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5055,7 +4973,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5100,12 +5018,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>91355A089</t>
+          <t>91355A088</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5122,7 +5040,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5157,7 +5075,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5167,12 +5085,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>91355A090</t>
+          <t>91355A191</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>13.69</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5189,7 +5107,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5234,12 +5152,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>91355A091</t>
+          <t>91355A089</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5256,7 +5174,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5291,22 +5209,22 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>91355A192</t>
+          <t>91355A090</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5323,7 +5241,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5358,22 +5276,22 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3, ASTM F835</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>91355A193</t>
+          <t>91355A091</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5390,7 +5308,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5400,12 +5318,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.234"</t>
+          <t>0.813"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5415,7 +5333,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5430,34 +5348,34 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>96660A151</t>
+          <t>91355A192</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Zinc-Plated Alloy Steel</t>
+          <t>Black-Oxide Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5467,12 +5385,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.234"</t>
+          <t>0.813"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5482,7 +5400,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5497,34 +5415,34 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>96660A152</t>
+          <t>91355A193</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Zinc-Plated Alloy Steel</t>
+          <t>Black-Oxide Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5569,12 +5487,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>96660A153</t>
+          <t>96660A151</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5591,7 +5509,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5601,12 +5519,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.297"</t>
+          <t>0.234"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5616,7 +5534,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5636,17 +5554,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>96660A154</t>
+          <t>96660A152</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5658,7 +5576,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5668,12 +5586,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.297"</t>
+          <t>0.234"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5683,7 +5601,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5703,7 +5621,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>96660A155</t>
+          <t>96660A153</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5713,7 +5631,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5725,7 +5643,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5770,12 +5688,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>96660A156</t>
+          <t>96660A154</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16.28</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5792,7 +5710,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5837,12 +5755,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>96660A157</t>
+          <t>96660A155</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>14.14</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5859,7 +5777,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5869,12 +5787,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.297"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5884,7 +5802,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5904,17 +5822,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>96660A158</t>
+          <t>96660A156</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>16.28</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5926,7 +5844,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5936,12 +5854,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.297"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5951,7 +5869,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5971,17 +5889,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>96660A159</t>
+          <t>96660A157</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13.42</t>
+          <t>14.14</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5993,7 +5911,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6038,12 +5956,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>96660A160</t>
+          <t>96660A158</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>14.14</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6060,7 +5978,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6100,17 +6018,17 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>96660A161</t>
+          <t>96660A159</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>13.42</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6127,7 +6045,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6137,12 +6055,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6152,7 +6070,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6172,17 +6090,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>96660A162</t>
+          <t>96660A160</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>14.14</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6194,7 +6112,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6204,12 +6122,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.406"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6219,7 +6137,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6234,22 +6152,22 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>96660A163</t>
+          <t>96660A161</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>13.42</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6261,7 +6179,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6301,17 +6219,17 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>96660A164</t>
+          <t>96660A162</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6328,7 +6246,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6373,17 +6291,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>96660A165</t>
+          <t>96660A163</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>13.42</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6395,7 +6313,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6435,22 +6353,22 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>96660A166</t>
+          <t>96660A164</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6462,7 +6380,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6507,12 +6425,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>96660A167</t>
+          <t>96660A165</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13.42</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6529,7 +6447,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6569,17 +6487,17 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>96660A168</t>
+          <t>96660A166</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6596,7 +6514,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6606,12 +6524,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6621,7 +6539,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6641,17 +6559,17 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>96660A169</t>
+          <t>96660A167</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>13.42</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6663,7 +6581,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6673,12 +6591,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.406"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6688,7 +6606,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6703,22 +6621,22 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>96660A170</t>
+          <t>96660A168</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6730,7 +6648,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6775,12 +6693,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>96660A171</t>
+          <t>96660A169</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6797,7 +6715,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6837,17 +6755,17 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>96660A172</t>
+          <t>96660A170</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6864,7 +6782,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6904,17 +6822,17 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>96660A173</t>
+          <t>96660A171</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6931,7 +6849,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6941,12 +6859,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.688"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6956,7 +6874,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6976,17 +6894,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>96660A174</t>
+          <t>96660A172</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -6998,7 +6916,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7008,12 +6926,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.688"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7023,7 +6941,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7043,17 +6961,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>96660A175</t>
+          <t>96660A173</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -7065,7 +6983,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7110,12 +7028,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>96660A176</t>
+          <t>96660A174</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7142,12 +7060,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.688"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7157,7 +7075,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>7/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7177,7 +7095,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>96660A177</t>
+          <t>96660A175</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7187,7 +7105,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7209,12 +7127,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.688"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7224,7 +7142,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>7/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7244,17 +7162,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>96660A178</t>
+          <t>96660A176</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7266,65 +7184,199 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0.813"</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.199"</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7/32"</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>96660A177</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Alloy Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0.813"</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.199"</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7/32"</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>96660A178</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Alloy Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>0.813"</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>0.199"</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>7/32"</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>120,000</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>__</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>96660A179</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>15.60</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>Zinc-Plated Alloy Steel</t>
         </is>
